--- a/Hamburgueria - PC/Excel/testingModel.xlsx
+++ b/Hamburgueria - PC/Excel/testingModel.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F027A0-8BE8-480F-AFAE-D7F2ECC6983F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B05B1-70F1-4C03-86D2-1EFB167D59E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,8 +34,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,9 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891944B-8995-40AB-906A-CCDE140ABF94}">
   <dimension ref="G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -393,4 +404,33 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FFF54C-1711-46B1-8854-AB612172C86A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511D62C-53FF-4DB1-92F4-3C7FBEC93E66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Hamburgueria - PC/Excel/testingModel.xlsx
+++ b/Hamburgueria - PC/Excel/testingModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGOR\Desktop\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B05B1-70F1-4C03-86D2-1EFB167D59E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70A7B4-082B-4CD4-8FB0-E489026126E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>TOTAL BRUTO</t>
+  </si>
+  <si>
+    <t>DESCONTO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>PAGAMENTO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -43,7 +69,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -51,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,10 +103,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,9 +440,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
     </row>
   </sheetData>
@@ -412,7 +457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -420,17 +465,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511D62C-53FF-4DB1-92F4-3C7FBEC93E66}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.77734375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="30.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="7" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hamburgueria - PC/Excel/testingModel.xlsx
+++ b/Hamburgueria - PC/Excel/testingModel.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGOR\Desktop\Hamburgueria\Hamburgueria - PC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA70A7B4-082B-4CD4-8FB0-E489026126E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA5875-7E3F-4F3E-9235-73A106C62F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -103,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -433,37 +430,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B891944B-8995-40AB-906A-CCDE140ABF94}">
-  <dimension ref="G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FFF54C-1711-46B1-8854-AB612172C86A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511D62C-53FF-4DB1-92F4-3C7FBEC93E66}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -471,31 +437,31 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="30.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="30.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Hamburgueria - PC/Excel/testingModel.xlsx
+++ b/Hamburgueria - PC/Excel/testingModel.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGOR\Desktop\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA5875-7E3F-4F3E-9235-73A106C62F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DF9D9-7338-4D76-8E53-ACD2777B8981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>TIPO</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>PAGAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL BRUTO </t>
+  </si>
+  <si>
+    <t>TOTAL DESCONTO</t>
+  </si>
+  <si>
+    <t>FORMA DE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>DINHEIRO</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>DEBITO</t>
   </si>
 </sst>
 </file>
@@ -58,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +92,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,8 +114,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,31 +147,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -431,42 +596,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511D62C-53FF-4DB1-92F4-3C7FBEC93E66}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="30.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <f>SUM(C2:C1048576)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="13">
+        <f>SUM(D2:D1048576)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="13">
+        <f>SUM(E2:E1048576)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="9">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="DINHEIRO">
+      <formula>NOT(ISERROR(SEARCH("DINHEIRO",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="DEBITO">
+      <formula>NOT(ISERROR(SEARCH("DEBITO",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="CREDITO">
+      <formula>NOT(ISERROR(SEARCH("CREDITO",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hamburgueria - PC/Excel/testingModel.xlsx
+++ b/Hamburgueria - PC/Excel/testingModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGOR\Desktop\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42DF9D9-7338-4D76-8E53-ACD2777B8981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75566A81-37F4-4A79-90C8-FF4444E938BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>TIPO</t>
   </si>
@@ -206,6 +206,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,19 +219,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -258,6 +258,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -273,6 +283,186 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -596,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0511D62C-53FF-4DB1-92F4-3C7FBEC93E66}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,16 +826,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C2" s="9">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="G2" s="10">
         <f>SUM(C2:C1048576)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G3" s="14"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G4" s="2" t="s">
@@ -653,13 +840,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <f>SUM(D2:D1048576)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="14"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G7" s="2" t="s">
@@ -667,97 +854,75 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <f>SUM(E2:E1048576)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="9">
-        <v>15</v>
-      </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="10"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="12"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="9">
-        <v>3</v>
-      </c>
+      <c r="G16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="DINHEIRO">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="DINHEIRO">
       <formula>NOT(ISERROR(SEARCH("DINHEIRO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="DEBITO">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="DEBITO">
       <formula>NOT(ISERROR(SEARCH("DEBITO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="CREDITO">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="CREDITO">
       <formula>NOT(ISERROR(SEARCH("CREDITO",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="CRÉDITO">
+      <formula>NOT(ISERROR(SEARCH("CRÉDITO",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="DÉBITO">
+      <formula>NOT(ISERROR(SEARCH("DÉBITO",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="DINHEIRO">
+      <formula>NOT(ISERROR(SEARCH("DINHEIRO",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="DINHEIRO">
+      <formula>NOT(ISERROR(SEARCH("DINHEIRO",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Hamburgueria - PC/Excel/testingModel.xlsx
+++ b/Hamburgueria - PC/Excel/testingModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IGOR\Desktop\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75566A81-37F4-4A79-90C8-FF4444E938BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45695BF-B0F0-486A-8CAB-32B52A265ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{672D4E54-BFAB-4FBA-8964-D4F57280EE18}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>FORMA DE PAGAMENTO</t>
   </si>
   <si>
-    <t>DINHEIRO</t>
-  </si>
-  <si>
-    <t>CREDITO</t>
-  </si>
-  <si>
-    <t>DEBITO</t>
+    <t>À VISTA</t>
+  </si>
+  <si>
+    <t>DÉBITO</t>
+  </si>
+  <si>
+    <t>CRÉDITO</t>
   </si>
 </sst>
 </file>
@@ -206,6 +206,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,16 +219,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -298,6 +298,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -343,126 +363,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -789,14 +689,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.77734375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="9" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="7" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" customWidth="1"/>
@@ -826,13 +727,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="10">
+      <c r="G2" s="11">
         <f>SUM(C2:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G4" s="2" t="s">
@@ -840,13 +741,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <f>SUM(D2:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G7" s="2" t="s">
@@ -854,13 +755,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <f>SUM(E2:E1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G10" s="6" t="s">
@@ -868,28 +769,28 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="12"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G15" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G16" s="14"/>
+      <c r="G16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -901,27 +802,30 @@
     <mergeCell ref="G13:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="DINHEIRO">
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="DINHEIRO">
       <formula>NOT(ISERROR(SEARCH("DINHEIRO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="DEBITO">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="DEBITO">
       <formula>NOT(ISERROR(SEARCH("DEBITO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="CREDITO">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="CREDITO">
       <formula>NOT(ISERROR(SEARCH("CREDITO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="CRÉDITO">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="CRÉDITO">
       <formula>NOT(ISERROR(SEARCH("CRÉDITO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="DÉBITO">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="DÉBITO">
       <formula>NOT(ISERROR(SEARCH("DÉBITO",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="DINHEIRO">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="DINHEIRO">
       <formula>NOT(ISERROR(SEARCH("DINHEIRO",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="À VISTA">
+      <formula>NOT(ISERROR(SEARCH("À VISTA",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="DINHEIRO">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="DINHEIRO">
       <formula>NOT(ISERROR(SEARCH("DINHEIRO",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
